--- a/products_new.xlsx
+++ b/products_new.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOK\Desktop\Lalit Test\Data-Scrapper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lalit\OneDrive\Documents\Data scrapper\Data-Scrapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58EA4AB-07F9-481E-A780-0F4B176E1A1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" tabRatio="399"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" tabRatio="399" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Sku Code</t>
   </si>
@@ -59,39 +60,6 @@
     <t>EN-FA-L14-NU01-1</t>
   </si>
   <si>
-    <t>EN-FA-L12-PK02-1</t>
-  </si>
-  <si>
-    <t>EN-FA-L14-NU02-1</t>
-  </si>
-  <si>
-    <t>EN-FA-L15-NU01-1</t>
-  </si>
-  <si>
-    <t>EN-FA-L12-PK03-1</t>
-  </si>
-  <si>
-    <t>EN-FA-L14-BB01-1</t>
-  </si>
-  <si>
-    <t>EN-FA-L12-NU02-1</t>
-  </si>
-  <si>
-    <t>EN-FA-L27-PK01-1</t>
-  </si>
-  <si>
-    <t>EN-FA-L15-PK01-1</t>
-  </si>
-  <si>
-    <t>EN-FA-L27-CL02-1</t>
-  </si>
-  <si>
-    <t>EN-FA-F59-PK02-1</t>
-  </si>
-  <si>
-    <t>EN-FA-L27-PK02-1</t>
-  </si>
-  <si>
     <t>Focallure Color Lasting Lip Tint-PP02</t>
   </si>
   <si>
@@ -101,39 +69,6 @@
     <t>Focallure Color Lasting Lip Tint-NU01</t>
   </si>
   <si>
-    <t>Focallure Glisten Opal Hydrating Lip Balm-PK02 SOUR SUGAR</t>
-  </si>
-  <si>
-    <t>Focallure Color Lasting Lip Tint-NU02</t>
-  </si>
-  <si>
-    <t>Focallure Airy Velvet Lipcream-NU01</t>
-  </si>
-  <si>
-    <t>Focallure Glisten Opal Hydrating Lip Balm-PK03 Sweet Karma</t>
-  </si>
-  <si>
-    <t>Focallure Color Lasting Lip Tint-BB01</t>
-  </si>
-  <si>
-    <t>Focallure Glisten Opal Hydrating Lip Balm-NU02 Cowgirl</t>
-  </si>
-  <si>
-    <t>Focallure Star-studded Lip Gloss PK01 Daja Vu</t>
-  </si>
-  <si>
-    <t>Focallure Airy Velvet Lipcream-PK01</t>
-  </si>
-  <si>
-    <t>Focallure Star-studded Lip Gloss CL02 Iridescent</t>
-  </si>
-  <si>
-    <t>Focallure Star Crash Stretchy Highlighter PK02 Rosettes Light</t>
-  </si>
-  <si>
-    <t>Focallure Star-studded Lip Gloss PK02 Serendipity Berry</t>
-  </si>
-  <si>
     <t>https://www.nykaa.com/focallure-color-lasting-lip-tint/p/18238936?productId=18238936&amp;pps=1&amp;skuId=18238927</t>
   </si>
   <si>
@@ -143,33 +78,6 @@
     <t>https://www.nykaa.com/focallure-color-lasting-lip-tint/p/18238936?productId=18238936&amp;pps=1&amp;skuId=18238925</t>
   </si>
   <si>
-    <t>https://www.nykaa.com/focallure-color-lasting-lip-tint/p/18238936?productId=18238936&amp;pps=1&amp;skuId=18238926</t>
-  </si>
-  <si>
-    <t>https://www.nykaa.com/focallure-airy-velvet-lipcream/p/17516493?productId=17516493&amp;pps=1&amp;skuId=17516453</t>
-  </si>
-  <si>
-    <t>https://www.nykaa.com/focallure-fa-l12-glisten-opal-hydrating-lip-balm/p/17516498?productId=17516498&amp;pps=1&amp;skuId=17516480</t>
-  </si>
-  <si>
-    <t>https://www.nykaa.com/focallure-color-lasting-lip-tint/p/18238936?productId=18238936&amp;pps=1&amp;skuId=18238928</t>
-  </si>
-  <si>
-    <t>https://www.nykaa.com/focallure-fa-l27-star-studded-lip-gloss/p/17516496?productId=17516496&amp;pps=1&amp;skuId=17516472</t>
-  </si>
-  <si>
-    <t>https://www.nykaa.com/focallure-airy-velvet-lipcream/p/17516493?productId=17516493&amp;pps=1&amp;skuId=17516457</t>
-  </si>
-  <si>
-    <t>https://www.nykaa.com/focallure-fa-l27-star-studded-lip-gloss/p/17516496?productId=17516496&amp;pps=1&amp;skuId=17516471</t>
-  </si>
-  <si>
-    <t>https://www.nykaa.com/focallure-star-crash-stretchy-highlighter/p/19383040?productId=19383040&amp;pps=1&amp;skuId=19383023</t>
-  </si>
-  <si>
-    <t>https://www.nykaa.com/focallure-fa-l27-star-studded-lip-gloss/p/17516496?productId=17516496&amp;pps=1&amp;skuId=17516473</t>
-  </si>
-  <si>
     <t>https://www.amazon.in/dp/B08QHX26MP</t>
   </si>
   <si>
@@ -179,24 +87,6 @@
     <t>https://www.amazon.in/dp/B08QHXR6J4</t>
   </si>
   <si>
-    <t>https://www.amazon.in/dp/B08NDCBZ42</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/dp/B08QHYB7J9</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/dp/B08NT6M6PS</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/dp/B08QHW3JKR</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/dp/B08P1SZFJ3</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/dp/B08P1SFKML</t>
-  </si>
-  <si>
     <t>https://www.myntra.com/31420934/</t>
   </si>
   <si>
@@ -206,39 +96,6 @@
     <t>https://www.myntra.com/31420900/</t>
   </si>
   <si>
-    <t>https://www.myntra.com/31413241/</t>
-  </si>
-  <si>
-    <t>https://www.myntra.com/31420981/</t>
-  </si>
-  <si>
-    <t>https://www.myntra.com/31420927/</t>
-  </si>
-  <si>
-    <t>https://www.myntra.com/31413242/</t>
-  </si>
-  <si>
-    <t>https://www.myntra.com/31420922/</t>
-  </si>
-  <si>
-    <t>https://www.myntra.com/31413240/</t>
-  </si>
-  <si>
-    <t>https://www.myntra.com/31420936/</t>
-  </si>
-  <si>
-    <t>https://www.myntra.com/31420893/</t>
-  </si>
-  <si>
-    <t>https://www.myntra.com/31420945/</t>
-  </si>
-  <si>
-    <t>https://www.myntra.com/32854996/</t>
-  </si>
-  <si>
-    <t>https://www.myntra.com/31420973/</t>
-  </si>
-  <si>
     <t>https://blinkit.com/prn/m/prid/625768/</t>
   </si>
   <si>
@@ -248,44 +105,17 @@
     <t>https://blinkit.com/prn/m/prid/625762/</t>
   </si>
   <si>
-    <t>https://blinkit.com/prn/m/prid/625742/</t>
-  </si>
-  <si>
-    <t>https://blinkit.com/prn/m/prid/625715/</t>
-  </si>
-  <si>
-    <t>https://blinkit.com/prn/m/prid/625746/</t>
-  </si>
-  <si>
-    <t>https://blinkit.com/prn/m/prid/625753/</t>
-  </si>
-  <si>
-    <t>https://blinkit.com/prn/m/prid/625728/</t>
-  </si>
-  <si>
     <t>https://www.tirabeauty.com/product/lamel-all-in-one-lip-tinted-plumping-oil-403-watermelon-3-ml-7608196</t>
   </si>
   <si>
-    <t>https://www.tirabeauty.com/products/?q=1151921</t>
-  </si>
-  <si>
     <t>https://www.tirabeauty.com/product/makeup-revolution-skin-silk-serum-foundation-f8-5-w-23-ml-7616487</t>
-  </si>
-  <si>
-    <t>https://www.tirabeauty.com/product/makeup-revolution-remove-power-lash-volume-mascara---black-10ml-wqj81qyhj67</t>
-  </si>
-  <si>
-    <t>https://www.tirabeauty.com/products/?q=1141338</t>
-  </si>
-  <si>
-    <t>https://www.tirabeauty.com/product/focallure-color-lasting-lip-tint-nu01-2-g-7610385</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,17 +153,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -404,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -424,16 +243,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
@@ -753,11 +563,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,22 +606,22 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>71</v>
+        <v>20</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -819,22 +629,22 @@
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>81</v>
+        <v>21</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -842,328 +652,40 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="G4" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="D2" r:id="rId4"/>
-    <hyperlink ref="C2" r:id="rId5"/>
-    <hyperlink ref="G3" r:id="rId6"/>
-    <hyperlink ref="F3" r:id="rId7"/>
-    <hyperlink ref="E3" r:id="rId8"/>
-    <hyperlink ref="D3" r:id="rId9"/>
-    <hyperlink ref="C3" r:id="rId10"/>
-    <hyperlink ref="G4" r:id="rId11"/>
-    <hyperlink ref="E4" r:id="rId12"/>
-    <hyperlink ref="D4" r:id="rId13"/>
-    <hyperlink ref="C4" r:id="rId14"/>
-    <hyperlink ref="G5" r:id="rId15"/>
-    <hyperlink ref="F5" r:id="rId16"/>
-    <hyperlink ref="E5" r:id="rId17"/>
-    <hyperlink ref="D5" r:id="rId18"/>
-    <hyperlink ref="F6" r:id="rId19"/>
-    <hyperlink ref="E6" r:id="rId20"/>
-    <hyperlink ref="D6" r:id="rId21"/>
-    <hyperlink ref="C6" r:id="rId22"/>
-    <hyperlink ref="G7" r:id="rId23"/>
-    <hyperlink ref="F7" r:id="rId24"/>
-    <hyperlink ref="E7" r:id="rId25"/>
-    <hyperlink ref="C7" r:id="rId26"/>
-    <hyperlink ref="G8" r:id="rId27"/>
-    <hyperlink ref="E8" r:id="rId28"/>
-    <hyperlink ref="D8" r:id="rId29"/>
-    <hyperlink ref="C8" r:id="rId30"/>
-    <hyperlink ref="E9" r:id="rId31"/>
-    <hyperlink ref="D9" r:id="rId32"/>
-    <hyperlink ref="C9" r:id="rId33"/>
-    <hyperlink ref="G10" r:id="rId34"/>
-    <hyperlink ref="E10" r:id="rId35"/>
-    <hyperlink ref="D10" r:id="rId36"/>
-    <hyperlink ref="E11" r:id="rId37"/>
-    <hyperlink ref="C11" r:id="rId38"/>
-    <hyperlink ref="G12" r:id="rId39"/>
-    <hyperlink ref="F12" r:id="rId40"/>
-    <hyperlink ref="E12" r:id="rId41"/>
-    <hyperlink ref="C12" r:id="rId42"/>
-    <hyperlink ref="E13" r:id="rId43"/>
-    <hyperlink ref="D13" r:id="rId44"/>
-    <hyperlink ref="C13" r:id="rId45"/>
-    <hyperlink ref="E14" r:id="rId46"/>
-    <hyperlink ref="C14" r:id="rId47"/>
-    <hyperlink ref="E15" r:id="rId48"/>
-    <hyperlink ref="C15" r:id="rId49"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E3" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D3" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C3" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G4" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D4" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C4" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/products_new.xlsx
+++ b/products_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lalit\OneDrive\Documents\Data scrapper\Data-Scrapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58EA4AB-07F9-481E-A780-0F4B176E1A1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA70B0E4-5145-437B-B351-6762407BB433}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" tabRatio="399" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Sku Code</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Tira</t>
   </si>
   <si>
-    <t>Blinkit</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -94,15 +91,6 @@
   </si>
   <si>
     <t>https://www.myntra.com/31420900/</t>
-  </si>
-  <si>
-    <t>https://blinkit.com/prn/m/prid/625768/</t>
-  </si>
-  <si>
-    <t>https://blinkit.com/prn/m/prid/625732/</t>
-  </si>
-  <si>
-    <t>https://blinkit.com/prn/m/prid/625762/</t>
   </si>
   <si>
     <t>https://www.tirabeauty.com/product/lamel-all-in-one-lip-tinted-plumping-oil-403-watermelon-3-ml-7608196</t>
@@ -175,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -198,37 +186,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -240,13 +205,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -564,21 +523,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="30.140625" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="30.140625" customWidth="1"/>
+    <col min="6" max="6" width="65.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,95 +556,80 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E3" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D3" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C3" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G4" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D4" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C4" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C3" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C4" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/products_new.xlsx
+++ b/products_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lalit\OneDrive\Documents\Data scrapper\Data-Scrapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA70B0E4-5145-437B-B351-6762407BB433}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4659C862-B344-4E06-9985-AA39D380A77B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" tabRatio="399" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Sku Code</t>
   </si>
@@ -48,62 +48,132 @@
     <t>-</t>
   </si>
   <si>
-    <t>EN-FA-L14-PP02-1</t>
-  </si>
-  <si>
-    <t>EN-FA-L15-PK02-1</t>
-  </si>
-  <si>
-    <t>EN-FA-L14-NU01-1</t>
-  </si>
-  <si>
-    <t>Focallure Color Lasting Lip Tint-PP02</t>
-  </si>
-  <si>
-    <t>Focallure Airy Velvet Lipcream-PK02</t>
-  </si>
-  <si>
-    <t>Focallure Color Lasting Lip Tint-NU01</t>
-  </si>
-  <si>
-    <t>https://www.nykaa.com/focallure-color-lasting-lip-tint/p/18238936?productId=18238936&amp;pps=1&amp;skuId=18238927</t>
-  </si>
-  <si>
-    <t>https://www.nykaa.com/focallure-airy-velvet-lipcream/p/17516493?productId=17516493&amp;pps=1&amp;skuId=17516458</t>
-  </si>
-  <si>
-    <t>https://www.nykaa.com/focallure-color-lasting-lip-tint/p/18238936?productId=18238936&amp;pps=1&amp;skuId=18238925</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/dp/B08QHX26MP</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/dp/B08MKZ9112</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/dp/B08QHXR6J4</t>
-  </si>
-  <si>
-    <t>https://www.myntra.com/31420934/</t>
-  </si>
-  <si>
-    <t>https://www.myntra.com/31420979/</t>
-  </si>
-  <si>
-    <t>https://www.myntra.com/31420900/</t>
-  </si>
-  <si>
-    <t>https://www.tirabeauty.com/product/lamel-all-in-one-lip-tinted-plumping-oil-403-watermelon-3-ml-7608196</t>
-  </si>
-  <si>
-    <t>https://www.tirabeauty.com/product/makeup-revolution-skin-silk-serum-foundation-f8-5-w-23-ml-7616487</t>
+    <t>GC990</t>
+  </si>
+  <si>
+    <t>L.A. Girl - Hd Pro Concealer - Orange Corrector</t>
+  </si>
+  <si>
+    <t>https://www.nykaa.com/l/p/40862?redirectpath=slug&amp;skuId=40884</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B00VKKIXD0</t>
+  </si>
+  <si>
+    <t>https://www.myntra.com/10861588/</t>
+  </si>
+  <si>
+    <t>https://www.tirabeauty.com/product/la-girl-pro-conceal-corrector-orange-8g-nisfy9w5bvs</t>
+  </si>
+  <si>
+    <t>Revolution Fix &amp; Glow Fixing Spray</t>
+  </si>
+  <si>
+    <t>https://www.nykaa.com/mak/p/7883823</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B08YHT369B</t>
+  </si>
+  <si>
+    <t>https://www.myntra.com/20615242/</t>
+  </si>
+  <si>
+    <t>https://www.tirabeauty.com/product/makeup-revolution-fix-glow-fixing-spray-100-ml-7605368</t>
+  </si>
+  <si>
+    <t>Revolution Forever Flawless Allure</t>
+  </si>
+  <si>
+    <t>https://www.nykaa.com/makeup-revolution-forever-flawless/p/4241822?redirectpath=slug&amp;skuId=646072</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B07ZWC2NJ9</t>
+  </si>
+  <si>
+    <t>https://www.myntra.com/11212894/</t>
+  </si>
+  <si>
+    <t>https://www.tirabeauty.com/product/makeup-revolution-the-icon-palette-enchanted-icon-8-4-g-7615083</t>
+  </si>
+  <si>
+    <t>Revolution Sunset Shift Peel Off Lip Stain Flushed Pink</t>
+  </si>
+  <si>
+    <t>https://www.myntra.com/34882667/</t>
+  </si>
+  <si>
+    <t>https://www.tirabeauty.com/product/makeup-revolution-pout-bomb-plumping-gloss-rosewood-rose-pink-4-6-ml-7615088</t>
+  </si>
+  <si>
+    <t>Revolution Forever Flawless Affinity Eyeshadow Palette</t>
+  </si>
+  <si>
+    <t>https://www.nykaa.com/mak/p/2725253</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B08T6Z75L9</t>
+  </si>
+  <si>
+    <t>https://www.myntra.com/14954048/</t>
+  </si>
+  <si>
+    <t>https://www.tirabeauty.com/product/makeup-revolution-streamline-waterline-eyeliner-pencil-brown-1-3g-7572797</t>
+  </si>
+  <si>
+    <t>GLM642</t>
+  </si>
+  <si>
+    <t>L.A. Girl Pro coverage HD Foundation - Fair</t>
+  </si>
+  <si>
+    <t>https://www.nykaa.com/l-a-girl-pro-coverage-illuminating-liquid-foundation/p/81919?redirectpath=slug&amp;skuId=81859/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B01M4IGE0Y</t>
+  </si>
+  <si>
+    <t>https://www.myntra.com/2156656/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Calibri, sans-serif"/>
+      </rPr>
+      <t>https://www.tirabeauty.com/products/?q=961200</t>
+    </r>
+  </si>
+  <si>
+    <t>LAGCOMBO03</t>
+  </si>
+  <si>
+    <t>LA Girl Bestseller Combo III</t>
+  </si>
+  <si>
+    <t>https://www.nykaa.com/l/p/1374361</t>
+  </si>
+  <si>
+    <t>https://www.myntra.com/15191878/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Calibri, sans-serif"/>
+      </rPr>
+      <t>https://www.tirabeauty.com/products/?q=963712</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +211,29 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Calibri, sans-serif"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -191,22 +284,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -523,21 +634,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="5" width="30.140625" customWidth="1"/>
-    <col min="6" max="6" width="65.85546875" customWidth="1"/>
+    <col min="1" max="6" width="22" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="7" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,79 +666,170 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="60">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="75">
+      <c r="A3" s="3">
+        <v>1337069</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="7" customFormat="1" ht="77.25">
+      <c r="A4" s="3">
+        <v>1165686</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5" t="s">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="77.25">
+      <c r="A5" s="3">
+        <v>1930109</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="C5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="4" t="s">
+    <row r="6" spans="1:6" s="7" customFormat="1" ht="64.5">
+      <c r="A6" s="3">
+        <v>1361897</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="77.25">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="7" customFormat="1" ht="26.25">
+      <c r="A8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C3" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C4" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{F88366E8-E855-4FAC-B95E-904E9E02C6B6}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{EA4EC2DE-0394-413A-A4B1-BA7F5F6CA5A5}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{A1A6C8C6-4EFF-46FE-AA31-2F60372FC84E}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{DD6C7D91-6B44-4C76-BBD1-68025DF43619}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{BEF52FB5-FFAD-4593-B399-E9F0FE4307FA}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{4D23524B-3B74-4F50-84A6-131F7D71DCFC}"/>
+    <hyperlink ref="D2" r:id="rId7" xr:uid="{9FBC83AA-32DB-4F88-B72E-D293F9A07093}"/>
+    <hyperlink ref="D3" r:id="rId8" xr:uid="{3D7149B0-8889-4526-A6F9-C1384869F00A}"/>
+    <hyperlink ref="D4" r:id="rId9" xr:uid="{4189659D-B87E-4875-A3C2-57D72F906B20}"/>
+    <hyperlink ref="D6" r:id="rId10" xr:uid="{FF79CC88-5D71-448C-AD22-498738971B6B}"/>
+    <hyperlink ref="D7" r:id="rId11" xr:uid="{A4B7F111-3969-46B4-83F0-69F961EC7E46}"/>
+    <hyperlink ref="E2" r:id="rId12" xr:uid="{BCFF5D6B-0C53-4FB5-B2A9-A4D024848283}"/>
+    <hyperlink ref="E3" r:id="rId13" xr:uid="{270994EF-97BF-46D4-B6AE-C5F4633974EB}"/>
+    <hyperlink ref="E4" r:id="rId14" xr:uid="{052954DF-5135-4648-BB46-2E47C0323ED5}"/>
+    <hyperlink ref="E5" r:id="rId15" xr:uid="{73B01069-1816-4F21-9F53-DB24F3024AFA}"/>
+    <hyperlink ref="E6" r:id="rId16" xr:uid="{FDC84D28-C3E7-432F-8F73-BF6FF2547C77}"/>
+    <hyperlink ref="E7" r:id="rId17" xr:uid="{73920174-93B2-4395-94DD-E6A01323D2C6}"/>
+    <hyperlink ref="E8" r:id="rId18" xr:uid="{61D7C266-EF37-4184-9AF5-5ECDE315DBDA}"/>
+    <hyperlink ref="F2" r:id="rId19" xr:uid="{CE72CC60-A3F8-4E54-A8DB-FDF2646251C7}"/>
+    <hyperlink ref="F3" r:id="rId20" xr:uid="{BEDC2F9D-8DA7-425C-8379-67350AD94696}"/>
+    <hyperlink ref="F7" r:id="rId21" xr:uid="{59EA9424-C27A-4E93-8CCF-31A049CDF32B}"/>
+    <hyperlink ref="F8" r:id="rId22" xr:uid="{C9E5D169-5489-443E-ABEA-4C5CC8662E2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/products_new.xlsx
+++ b/products_new.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lalit\OneDrive\Documents\Data scrapper\Data-Scrapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4659C862-B344-4E06-9985-AA39D380A77B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47007DCB-02DF-43C7-B111-3287D5341FD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" tabRatio="399" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$F$8</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -637,13 +640,13 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F1" sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
     <col min="1" max="6" width="22" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="16384" width="9.140625" style="2" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="7" customFormat="1">

--- a/products_new.xlsx
+++ b/products_new.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lalit\OneDrive\Documents\Data scrapper\Data-Scrapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47007DCB-02DF-43C7-B111-3287D5341FD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7B4781-37F8-4C39-81BE-1B4195617CFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" tabRatio="399" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$F$8</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Sku Code</t>
   </si>
@@ -138,17 +135,6 @@
     <t>https://www.myntra.com/2156656/</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri, sans-serif"/>
-      </rPr>
-      <t>https://www.tirabeauty.com/products/?q=961200</t>
-    </r>
-  </si>
-  <si>
     <t>LAGCOMBO03</t>
   </si>
   <si>
@@ -159,24 +145,13 @@
   </si>
   <si>
     <t>https://www.myntra.com/15191878/</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri, sans-serif"/>
-      </rPr>
-      <t>https://www.tirabeauty.com/products/?q=963712</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,12 +195,6 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Calibri, sans-serif"/>
     </font>
     <font>
       <sz val="8"/>
@@ -287,40 +256,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -636,20 +602,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35D647F-D5EB-410F-A859-B47111F4788D}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="22" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2" hidden="1"/>
+    <col min="1" max="6" width="31.42578125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,144 +634,144 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="60">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="75">
-      <c r="A3" s="3">
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1337069</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="77.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>1165686</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="77.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>1930109</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" ht="64.5">
-      <c r="A6" s="3">
+    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>1361897</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="77.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" ht="26.25">
-      <c r="A8" s="10" t="s">
+      <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>41</v>
+      <c r="F8" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -831,8 +796,6 @@
     <hyperlink ref="E8" r:id="rId18" xr:uid="{61D7C266-EF37-4184-9AF5-5ECDE315DBDA}"/>
     <hyperlink ref="F2" r:id="rId19" xr:uid="{CE72CC60-A3F8-4E54-A8DB-FDF2646251C7}"/>
     <hyperlink ref="F3" r:id="rId20" xr:uid="{BEDC2F9D-8DA7-425C-8379-67350AD94696}"/>
-    <hyperlink ref="F7" r:id="rId21" xr:uid="{59EA9424-C27A-4E93-8CCF-31A049CDF32B}"/>
-    <hyperlink ref="F8" r:id="rId22" xr:uid="{C9E5D169-5489-443E-ABEA-4C5CC8662E2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
